--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages Tokens (TSTX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages Tokens (TSTX).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages Tokens (TSTX).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Strixhaven School of Mages Tokens (TSTX).xlsx
@@ -500,7 +500,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Claim the Firstborn', ['{R}', 'Sorcery', 'Gain control of target creature with converted mana cost 3 or less until end of turn. Untap that creature. It gains haste until end of turn.'])</t>
+          <t>('Claim the Firstborn', ['{R}', 'Sorcery', 'Gain control of target creature with mana value 3 or less until end of turn. Untap that creature. It gains haste until end of turn.'])</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, and put one onto the battlefield tapped and the other into your hand. Then shuffle your library.'])</t>
+          <t>('Cultivate', ['{2}{G}', 'Sorcery', 'Search your library for up to two basic land cards, reveal those cards, put one onto the battlefield tapped and the other into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle your library.'])</t>
+          <t>('Demonic Tutor', ['{1}{B}', 'Sorcery', 'Search your library for a card, put that card into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Despark', ['{W}{B}', 'Instant', 'Exile target permanent with converted mana cost 4 or greater.'])</t>
+          <t>('Despark', ['{W}{B}', 'Instant', 'Exile target permanent with mana value 4 or greater.'])</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Eliminate', ['{1}{B}', 'Instant', 'Destroy target creature or planeswalker with converted mana cost 3 or less.'])</t>
+          <t>('Eliminate', ['{1}{B}', 'Instant', 'Destroy target creature or planeswalker with mana value 3 or less.'])</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Gift of Estates', ['{1}{W}', 'Sorcery', 'If an opponent controls more lands than you, search your library for up to three Plains cards, reveal them, and put them into your hand. Then shuffle your library.'])</t>
+          <t>('Gift of Estates', ['{1}{W}', 'Sorcery', 'If an opponent controls more lands than you, search your library for up to three Plains cards, reveal them, put them into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Gods Willing', ['{W}', 'Instant', 'Target creature you control gains protection from the color of your choice until end of turn. (It can’t be blocked, targeted, dealt damage, enchanted, or equipped by anything of that color.)', 'Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)'])</t>
+          <t>('Gods Willing', ['{W}', 'Instant', 'Target creature you control gains protection from the color of your choice until end of turn. (It can’t be blocked, targeted, dealt damage, enchanted, or equipped by anything of that color.)', 'Scry 1.'])</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Inquisition of Kozilek', ['{B}', 'Sorcery', 'Target player reveals their hand. You choose a nonland card from it with converted mana cost 3 or less. That player discards that card.'])</t>
+          <t>('Inquisition of Kozilek', ['{B}', 'Sorcery', 'Target player reveals their hand. You choose a nonland card from it with mana value 3 or less. That player discards that card.'])</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost. (If it has X in its mana cost, X is 0.)', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
+          <t>("Mind's Desire", ['{4}{U}{U}', 'Sorcery', 'Shuffle your library. Then exile the top card of your library. Until end of turn, you may play that card without paying its mana cost.', 'Storm (When you cast this spell, copy it for each spell cast before it this turn.)'])</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Natural Order', ['{2}{G}{G}', 'Sorcery', 'As an additional cost to cast this spell, sacrifice a green creature.', 'Search your library for a green creature card and put it onto the battlefield. Then shuffle your library.'])</t>
+          <t>('Natural Order', ['{2}{G}{G}', 'Sorcery', 'As an additional cost to cast this spell, sacrifice a green creature.', 'Search your library for a green creature card, put it onto the battlefield, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Opt', ['{U}', 'Instant', 'Scry 1. (Look at the top card of your library. You may put that card on the bottom of your library.)', 'Draw a card.'])</t>
+          <t>('Opt', ['{U}', 'Instant', 'Scry 1.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Primal Command', ['{3}{G}{G}', 'Sorcery', 'Choose two —', '• Target player gains 7 life.', '• Put target noncreature permanent on top of its owner’s library.', '• Target player shuffles their graveyard into their library.', '• Search your library for a creature card, reveal it, put it into your hand, then shuffle your library.'])</t>
+          <t>('Primal Command', ['{3}{G}{G}', 'Sorcery', 'Choose two —', '• Target player gains 7 life.', '• Put target noncreature permanent on top of its owner’s library.', '• Target player shuffles their graveyard into their library.', '• Search your library for a creature card, reveal it, put it into your hand, then shuffle.'])</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn. (It can’t be the target of spells or abilities your opponents control.)'])</t>
+          <t>('Snakeskin Veil', ['{G}', 'Instant', 'Put a +1/+1 counter on target creature you control. It gains hexproof until end of turn.'])</t>
         </is>
       </c>
     </row>
